--- a/src/main/resources/devices/blueowl/Timekeeper.xlsx
+++ b/src/main/resources/devices/blueowl/Timekeeper.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\src\main\resources\devices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\src\main\resources\devices\blueowl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F574688C-C92C-4568-85B3-6E2FCF90D67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F0CFEF-41B3-41EE-8F1B-A560A5D1543F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="3660" windowWidth="22410" windowHeight="11295" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
   </bookViews>
   <sheets>
     <sheet name="TImekeeper" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>pin</t>
   </si>
@@ -63,27 +63,15 @@
     <t>pin action</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>clock</t>
   </si>
   <si>
     <t>Start Clock</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Stop Clock</t>
   </si>
   <si>
@@ -100,33 +88,6 @@
   </si>
   <si>
     <t>120</t>
-  </si>
-  <si>
-    <t>Ignore A2 Inputs</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Ignore A3 Inputs</t>
-  </si>
-  <si>
-    <t>Ignore A4 Inputs</t>
-  </si>
-  <si>
-    <t>Ignore A5 Inputs</t>
-  </si>
-  <si>
-    <t>ignore A0 inputs</t>
-  </si>
-  <si>
-    <t>Ignore A1 Inputs</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>14</t>
   </si>
 </sst>
 </file>
@@ -162,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -171,21 +132,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,16 +447,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593FC154-758F-4104-A30E-11A530E91792}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
@@ -523,7 +468,7 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -550,161 +495,71 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="4">
+        <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="4">
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="4">
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="4">
+        <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="4">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="4">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="4">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
